--- a/document/customerInfo.xlsx
+++ b/document/customerInfo.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -57,13 +57,25 @@
   </si>
   <si>
     <t>这是客户19的备注</t>
+  </si>
+  <si>
+    <t>所属人员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兰壮壮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兰壮壮1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,11 +124,16 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -190,6 +207,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -224,6 +242,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -399,14 +418,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12.875" customWidth="1"/>
     <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
@@ -415,7 +434,7 @@
     <col min="5" max="5" width="20.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -431,8 +450,11 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -448,8 +470,11 @@
       <c r="E2" t="s">
         <v>9</v>
       </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -464,6 +489,9 @@
       </c>
       <c r="E3" t="s">
         <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -474,12 +502,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -488,12 +516,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/document/customerInfo.xlsx
+++ b/document/customerInfo.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -30,17 +30,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>邮箱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>jacks@127.com</t>
-  </si>
-  <si>
     <t>客户18</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -48,10 +41,6 @@
     <t>客户19</t>
   </si>
   <si>
-    <t>jacks@163.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>这是客户18的备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -63,11 +52,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>类别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>兰壮壮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兰壮壮1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -422,13 +411,13 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12.875" customWidth="1"/>
-    <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
     <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.375" customWidth="1"/>
     <col min="5" max="5" width="20.875" customWidth="1"/>
@@ -445,53 +434,53 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
       <c r="F1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B2">
-        <v>13735678011</v>
+        <v>13590907898</v>
       </c>
       <c r="C2">
         <v>766604032</v>
       </c>
-      <c r="D2" t="s">
-        <v>5</v>
+      <c r="D2">
+        <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3">
-        <v>13735678012</v>
+        <v>13590907898</v>
       </c>
       <c r="C3">
         <v>766604033</v>
       </c>
-      <c r="D3" t="s">
-        <v>8</v>
+      <c r="D3">
+        <v>1</v>
       </c>
       <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
         <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
